--- a/simulations/cleaned_inclusion_exclusion/Radjenovic_2013 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Radjenovic_2013 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.8709351305812973</v>
+        <v>0.8712721145745577</v>
       </c>
       <c r="I3">
-        <v>0.02575590283675896</v>
+        <v>0.0250905950965404</v>
       </c>
       <c r="J3">
         <v>0.875</v>
       </c>
       <c r="K3">
-        <v>176.125</v>
+        <v>172.2083333333333</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -755,34 +755,34 @@
         <v>43</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="R3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T3">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="U3">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="V3">
-        <v>5864</v>
+        <v>5871</v>
       </c>
       <c r="W3">
-        <v>5856</v>
+        <v>5862</v>
       </c>
       <c r="X3">
-        <v>5790</v>
+        <v>5792</v>
       </c>
       <c r="Y3">
-        <v>5712</v>
+        <v>5705</v>
       </c>
       <c r="Z3">
-        <v>5612</v>
+        <v>5660</v>
       </c>
       <c r="AA3">
         <v>44</v>
@@ -800,19 +800,19 @@
         <v>5</v>
       </c>
       <c r="AF3">
-        <v>0.996093</v>
+        <v>0.997282</v>
       </c>
       <c r="AG3">
-        <v>0.994734</v>
+        <v>0.995753</v>
       </c>
       <c r="AH3">
-        <v>0.983523</v>
+        <v>0.983863</v>
       </c>
       <c r="AI3">
-        <v>0.9702730000000001</v>
+        <v>0.9690839999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.953287</v>
+        <v>0.96144</v>
       </c>
     </row>
   </sheetData>
